--- a/WSC/Test Cases/HRMS/WSC HRMS_HR Settings.xlsx
+++ b/WSC/Test Cases/HRMS/WSC HRMS_HR Settings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300" tabRatio="599"/>
+    <workbookView windowWidth="27945" windowHeight="12330" tabRatio="599" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TC_HR_Settings" sheetId="17" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="281">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Reviewed By</t>
   </si>
   <si>
-    <t>Executed By</t>
-  </si>
-  <si>
     <t>S#</t>
   </si>
   <si>
@@ -47,7 +44,11 @@
     <t>Test Data</t>
   </si>
   <si>
-    <t>url: erp.worldskillcenter.org</t>
+    <t>URL: wscdemo.eduleadonline.com
+User ID : hradmin@gmail.com,  Pass : erp@123
+User ID :  hrmanager@gmail.com,  Pass : erp@123
+User ID : hrassistant@gmail.com,  Pass : erp@123
+User ID : kris@gmail.com,  Pass : erp@123</t>
   </si>
   <si>
     <t>Test Scenario</t>
@@ -65,7 +66,7 @@
     <t>Expected Result</t>
   </si>
   <si>
-    <t>Actual Results (HR Admin)</t>
+    <t>Actual Results</t>
   </si>
   <si>
     <t>Pass/Fail/Not Executed/Suspended</t>
@@ -83,40 +84,22 @@
     <t xml:space="preserve"> HR Settings page should be open</t>
   </si>
   <si>
-    <t xml:space="preserve"> HR Settings page is opening</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>View the  HR Settings  page</t>
   </si>
   <si>
     <t>Settings related fields should be shown on HR Settings page</t>
   </si>
   <si>
-    <t>Settings related fields is showing on HR Settings page</t>
-  </si>
-  <si>
     <t>Without fill any fields, click on save button</t>
   </si>
   <si>
     <t>Alert message should be shown for mandatory fields</t>
   </si>
   <si>
-    <t>Alert message is not showing for mandatory fields</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>Fill only mandatory fields, click on save button</t>
   </si>
   <si>
     <t>Page should be saved successfully</t>
-  </si>
-  <si>
-    <t>Page is saved successfully</t>
   </si>
   <si>
     <t>Click on Employee naming by dropdown, choose the type of naming.
@@ -128,25 +111,16 @@
     <t>Employee naming series dropdown should be clickable. Data should be shown on dropdown list. User should able to choose one data from dropdown</t>
   </si>
   <si>
-    <t>Employee naming series dropdown should is clickable. Data is showing on dropdown list. User is able to choose one data from dropdown</t>
-  </si>
-  <si>
     <t>Click on Retirement age (in years) text field, fill it</t>
   </si>
   <si>
     <t>User should able to fill the retirement age text field</t>
   </si>
   <si>
-    <t>User is  able to fill the retirement age text field</t>
-  </si>
-  <si>
     <t>Click on standard working hours text field, fill it</t>
   </si>
   <si>
     <t>User should able to fill the standard working hours text field. It should be accept float value also</t>
-  </si>
-  <si>
-    <t>User is  able to fill the standard working hours text field. It is accepting float value also</t>
   </si>
   <si>
     <t>Click on reminder section
@@ -158,34 +132,22 @@
     <t>reminder section should be open. default fields should be shown</t>
   </si>
   <si>
-    <t>reminder section is opening. default fields is showing</t>
-  </si>
-  <si>
     <t>click on holidays checkbox</t>
   </si>
   <si>
     <t>Holiday checkbox should be clickable. Type of holiday field should be shown</t>
   </si>
   <si>
-    <t>Holiday is clickable. Type of holiday field is showing</t>
-  </si>
-  <si>
     <t>Uncheck the holiday checkbox</t>
   </si>
   <si>
     <t>Holiday checkbox should be unchecked. type of holiday field should be removed</t>
   </si>
   <si>
-    <t>Holiday checkbox is unchecked. type of holiday field is removed</t>
-  </si>
-  <si>
     <t>Set the frequency for holiday reminders either weekly or monthly</t>
   </si>
   <si>
     <t>User should able to set frequency for holiday reminders for either weekly or monthly</t>
-  </si>
-  <si>
-    <t>User is able to set frequency for holiday reminders for either weekly or monthly</t>
   </si>
   <si>
     <t>click on Send Leave Notification checkbox</t>
@@ -195,10 +157,6 @@
 Default fields like Leave Approval Notification Template &amp; Leave Status Notification Template should be open</t>
   </si>
   <si>
-    <t>Send Leave Notification checkbox is checked. 
-Default fields like Leave Approval Notification Template &amp; Leave Status Notification Template is opening</t>
-  </si>
-  <si>
     <t>Uncheck the Send Leave Notification checkbox</t>
   </si>
   <si>
@@ -206,10 +164,6 @@
 Default fields should be removed</t>
   </si>
   <si>
-    <t>Send Leave Notification checkbox is unchecked. 
-Default fields is removed</t>
-  </si>
-  <si>
     <t>Click on leave approval notification dropdown, select data, put it</t>
   </si>
   <si>
@@ -217,10 +171,6 @@
 It should be linked field. it should be linked with the  selected data screen</t>
   </si>
   <si>
-    <t>Leave approval notification dropdown is clickable. data  is showing. user is able to put the data. 
-It is linked field. it is linked with the  selected data screen</t>
-  </si>
-  <si>
     <t>Click on leave status notification dropdown, select data, put it</t>
   </si>
   <si>
@@ -228,206 +178,139 @@
 It should be linked field. it should be linked with the selected data screen</t>
   </si>
   <si>
-    <t>Leave status notification dropdown is clickable. data  is showing. user is able to put the data. 
-It is linked field. it is linked with the  selected data screen</t>
-  </si>
-  <si>
     <t>Click on 'Expense Approver Mandatory In Expense Claim' checkbox</t>
   </si>
   <si>
     <t>Expense Approver Mandatory In Expense Claim' checkbox should be checked &amp; unchecked</t>
   </si>
   <si>
-    <t>Expense Approver Mandatory In Expense Claim' checkbox is checked &amp; unchecked</t>
-  </si>
-  <si>
     <t>Click on 'Show Leaves Of All Department Members In Calendar' checkbox</t>
   </si>
   <si>
     <t>Show Leaves Of All Department Members In Calendar' checkbox should be checked &amp; unchecked</t>
   </si>
   <si>
-    <t>Show Leaves Of All Department Members In Calendar' checkbox is checked &amp; unchecked</t>
-  </si>
-  <si>
     <t>Click on 'Auto Leave Encashment' checkbox</t>
   </si>
   <si>
     <t>Auto Leave Encashment' checkbox should be checked &amp; unchecked</t>
   </si>
   <si>
-    <t>Auto Leave Encashment' checkbox is checked &amp; unchecked</t>
-  </si>
-  <si>
     <t>Click on 'Leave Approver Mandatory In Leave Application' checkbox</t>
   </si>
   <si>
     <t>Leave Approver Mandatory In Leave Application' checkbox should be checked &amp; unchecked</t>
   </si>
   <si>
-    <t>Leave Approver Mandatory In Leave Application' checkbox is checked &amp; unchecked</t>
-  </si>
-  <si>
     <t>Click on 'Restrict Backdated Leave Application' checkbox</t>
   </si>
   <si>
     <t>Restrict Backdated Leave Application' checkbox should be checked &amp; unchecked</t>
   </si>
   <si>
-    <t>Restrict Backdated Leave Application' checkbox is checked &amp; unchecked</t>
-  </si>
-  <si>
     <t>Verify the page when Restrict Backdated Leave Application is checked</t>
   </si>
   <si>
     <t>Role Allowed to Create Backdated Leave Application field should be shown</t>
   </si>
   <si>
-    <t>Role Allowed to Create Backdated Leave Application field is showing</t>
-  </si>
-  <si>
     <t>Verify the page when Restrict Backdated Leave Application is unchecked after checked</t>
   </si>
   <si>
     <t>Role Allowed to Create Backdated Leave Application field should be removed</t>
   </si>
   <si>
-    <t>Role Allowed to Create Backdated Leave Application field is removed</t>
-  </si>
-  <si>
     <t>Click on Role Allowed to Create Backdated Leave Application field, fill it</t>
   </si>
   <si>
     <t>User should able to fill the Role Allowed to Create Backdated Leave Application field</t>
   </si>
   <si>
-    <t>User is not able to fill Role Allowed to Create Backdated Leave Application field. Insufficient permission for role is showing</t>
-  </si>
-  <si>
     <t>Go to Hiring setings section</t>
   </si>
   <si>
     <t>Hiring settings related fields should be shown</t>
   </si>
   <si>
-    <t>Hiring settings related fields are showing</t>
-  </si>
-  <si>
     <t>Click on 'Check Vacancies On Job Offer Creation' checkbox</t>
   </si>
   <si>
     <t>Check Vacancies On Job Offer Creation' checkbox should be checked &amp; unchecked</t>
   </si>
   <si>
-    <t>Check Vacancies On Job Offer Creation' checkbox is checked &amp; unchecked</t>
-  </si>
-  <si>
     <t>Click on 'Send Interview Reminder' checkbox</t>
   </si>
   <si>
     <t>Send Interview Reminder' checkbox should be checked &amp; unchecked</t>
   </si>
   <si>
-    <t>Send Interview Reminder' checkbox is checked &amp; unchecked</t>
-  </si>
-  <si>
     <t>Verify the page when Send Interview Reminder is checked</t>
   </si>
   <si>
     <t>Default fields like Interview Reminder Notification Template &amp; Remind Before should be open</t>
   </si>
   <si>
-    <t>Default fields like Interview Reminder Notification Template &amp; Remind Before is showing</t>
-  </si>
-  <si>
     <t>Verify the page when Send Interview Reminder is unchecked after checked</t>
   </si>
   <si>
     <t>Default fields should be removed</t>
   </si>
   <si>
-    <t>Default fields is removed</t>
-  </si>
-  <si>
     <t>Click on Interview Reminder Notification Template dropdown, fill it</t>
   </si>
   <si>
     <t>Interview Reminder Notification Template should be clickable. user should able to fill the field. It should be a link field. it should be linked with  selected data screen</t>
   </si>
   <si>
-    <t>Interview Reminder Notification Template is clickable. user is able to fill the field. It is a linked field. it is  linked with  selected data screen</t>
-  </si>
-  <si>
     <t>Click on Remind Before field, set the time</t>
   </si>
   <si>
     <t>Remind Before field should be clickable. time row should be open. user should able to set the time</t>
   </si>
   <si>
-    <t>Remind Before field is clickable. time row is opening. user is able to set the time</t>
-  </si>
-  <si>
     <t>Click on 'Send Interview Feedback Reminder' checkbox</t>
   </si>
   <si>
     <t>Send Interview Feedback Reminder' checkbox should be checked &amp; unchecked</t>
   </si>
   <si>
-    <t>Send Interview Feedback Reminder' checkbox is checked &amp; unchecked</t>
-  </si>
-  <si>
     <t>Verify the page when Send Interview Feedback Reminder is checked</t>
   </si>
   <si>
     <t>Feedback Reminder Notification Template field should be shown</t>
   </si>
   <si>
-    <t>Feedback Reminder Notification Template field is showing</t>
-  </si>
-  <si>
     <t>Verify the page when Send Interview Feedback Reminder is unchecked after checked</t>
   </si>
   <si>
     <t>Feedback Reminder Notification Template field should be removed</t>
   </si>
   <si>
-    <t>Feedback Reminder Notification Template field is removed</t>
-  </si>
-  <si>
     <t>Click on Feedback Reminder Notification Template dropdown, fill it</t>
   </si>
   <si>
     <t>Feedback Reminder Notification Template should be clickable. user should able to fill the field. It should be a link field. it should be linked with selected data screen</t>
   </si>
   <si>
-    <t>Feedback Reminder Notification Template is clickable. user is able to fill the field. It is a linked field. it is  linked with  selected data screen</t>
-  </si>
-  <si>
     <t>click on Exit Questionnaire Web Form field of Employee Exit Settings, fill it</t>
   </si>
   <si>
     <t>Exit Questionnaire Web Form field should be clickable. user should able to fill it</t>
   </si>
   <si>
-    <t>Exit Questionnaire Web Form field is not clickable. user is not able to fill it</t>
-  </si>
-  <si>
     <t>Click on Exit Questionnaire Notification Template dropdown of Employee Exit Settings, fill it</t>
   </si>
   <si>
     <t>Exit Questionnaire Notification Template should be clickable. user should able to fill the field. It should be a link field. it should be linked with selected data screen</t>
   </si>
   <si>
-    <t>Exit Questionnaire Notification Template is clickable. user is able to fill the field. It is a linked field. it is  linked with  selected data screen</t>
-  </si>
-  <si>
     <t>Roles And Permission</t>
   </si>
   <si>
     <t>Actual Result</t>
   </si>
   <si>
-    <t>Status</t>
+    <t>Execution Status</t>
   </si>
   <si>
     <r>
@@ -488,23 +371,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">The user have all the following accesses:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Select , Read,Write,Create,Delete</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -559,9 +425,6 @@
       </rPr>
       <t>Read</t>
     </r>
-  </si>
-  <si>
-    <t>HR Settings screen is not showing</t>
   </si>
   <si>
     <r>
@@ -633,9 +496,6 @@
     <t>The user should not have any  accesses</t>
   </si>
   <si>
-    <t>The user not have any  accesses</t>
-  </si>
-  <si>
     <t xml:space="preserve">Generic </t>
   </si>
   <si>
@@ -643,9 +503,6 @@
   </si>
   <si>
     <t>User should be able to login to WSC application.</t>
-  </si>
-  <si>
-    <t>User Id:-Administrator Pwd:-wsc@123</t>
   </si>
   <si>
     <t>Verify the generic for Employee Lifecycle module.</t>
@@ -1247,7 +1104,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
@@ -1430,7 +1287,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1446,12 +1303,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF6F5C5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1642,7 +1493,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1680,12 +1531,36 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1811,7 +1686,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1823,115 +1698,115 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1950,20 +1825,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1975,7 +1847,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1988,52 +1860,55 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2137,7 +2012,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4667250" y="8001000"/>
+              <a:off x="4667250" y="8686800"/>
               <a:ext cx="3857625" cy="571500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2413,29 +2288,29 @@
   <sheetPr/>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.4285714285714" style="24" customWidth="1"/>
-    <col min="2" max="2" width="57.5714285714286" style="24" customWidth="1"/>
-    <col min="3" max="3" width="80.4285714285714" style="24" customWidth="1"/>
-    <col min="4" max="4" width="65.2857142857143" style="24" customWidth="1"/>
-    <col min="5" max="5" width="20.5714285714286" style="24" customWidth="1"/>
-    <col min="6" max="6" width="13.2857142857143" style="24" customWidth="1"/>
-    <col min="7" max="16384" width="9.14285714285714" style="24"/>
+    <col min="1" max="1" width="12.4285714285714" style="23" customWidth="1"/>
+    <col min="2" max="2" width="57.5714285714286" style="23" customWidth="1"/>
+    <col min="3" max="3" width="66.2857142857143" style="23" customWidth="1"/>
+    <col min="4" max="4" width="40.7142857142857" style="23" customWidth="1"/>
+    <col min="5" max="5" width="20.5714285714286" style="23" customWidth="1"/>
+    <col min="6" max="6" width="13.2857142857143" style="23" customWidth="1"/>
+    <col min="7" max="16384" width="9.14285714285714" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4"/>
@@ -2443,800 +2318,677 @@
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="26" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="C5" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="27" t="s">
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" ht="69" customHeight="1" spans="1:3">
+      <c r="A7" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="9"/>
+    </row>
+    <row r="9" ht="30" spans="1:6">
+      <c r="A9" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="9" ht="30" spans="1:6">
-      <c r="A9" s="29" t="s">
+      <c r="B9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="C9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="D9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="E9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="26" t="s">
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="28"/>
+      <c r="B10" s="29" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="32">
+        <v>1</v>
+      </c>
+      <c r="B11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="35">
-        <v>1</v>
-      </c>
-      <c r="B11" s="36" t="s">
+      <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="34">
+        <v>2</v>
+      </c>
+      <c r="B12" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="C12" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="D12" s="35"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="35"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="34">
+        <v>3</v>
+      </c>
+      <c r="B13" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="37">
-        <v>2</v>
-      </c>
-      <c r="B12" s="24" t="s">
+      <c r="C13" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="D13" s="35"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="35"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="34">
+        <v>4</v>
+      </c>
+      <c r="B14" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="C14" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="D14" s="35"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="35"/>
+    </row>
+    <row r="15" ht="75" spans="1:6">
+      <c r="A15" s="34">
+        <v>5</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="35"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="35"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="34">
+        <v>6</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="35"/>
+    </row>
+    <row r="17" ht="30" spans="1:6">
+      <c r="A17" s="34">
+        <v>7</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="35"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="35"/>
+    </row>
+    <row r="18" ht="60" spans="1:6">
+      <c r="A18" s="34">
+        <v>8</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="35"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="35"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="34">
+        <v>9</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="35"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="35"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="34">
+        <v>10</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="35"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="35"/>
+    </row>
+    <row r="21" ht="30" spans="1:6">
+      <c r="A21" s="34">
+        <v>11</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="35"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="35"/>
+    </row>
+    <row r="22" ht="45" spans="1:6">
+      <c r="A22" s="34">
+        <v>12</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="35"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="35"/>
+    </row>
+    <row r="23" ht="30" spans="1:6">
+      <c r="A23" s="34">
+        <v>13</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="35"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="35"/>
+    </row>
+    <row r="24" ht="45" spans="1:6">
+      <c r="A24" s="34">
+        <v>14</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="35"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="35"/>
+    </row>
+    <row r="25" ht="45" spans="1:6">
+      <c r="A25" s="34">
+        <v>15</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="35"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="35"/>
+    </row>
+    <row r="26" ht="30" spans="1:6">
+      <c r="A26" s="34">
+        <v>16</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="35"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="35"/>
+    </row>
+    <row r="27" ht="30" spans="1:6">
+      <c r="A27" s="34">
+        <v>17</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="35"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="35"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="34">
+        <v>18</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="35"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="35"/>
+    </row>
+    <row r="29" ht="30" spans="1:6">
+      <c r="A29" s="34">
+        <v>19</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="35"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="35"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="34">
+        <v>20</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="35"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="35"/>
+    </row>
+    <row r="31" ht="30" spans="1:6">
+      <c r="A31" s="34">
+        <v>21</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="35"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="35"/>
+    </row>
+    <row r="32" ht="30" spans="1:6">
+      <c r="A32" s="34">
+        <v>22</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="35"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="35"/>
+    </row>
+    <row r="33" ht="30" spans="1:6">
+      <c r="A33" s="34">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="37">
-        <v>3</v>
-      </c>
-      <c r="B13" s="24" t="s">
+      <c r="B33" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="35"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="35"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="34">
+        <v>24</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="35"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="35"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="34">
+        <v>25</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="35"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="35"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="34">
+        <v>26</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="35"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="35"/>
+    </row>
+    <row r="37" ht="30" spans="1:6">
+      <c r="A37" s="34">
         <v>27</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="B37" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="35"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="35"/>
+    </row>
+    <row r="38" ht="30" spans="1:6">
+      <c r="A38" s="34">
         <v>28</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="B38" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="35"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="35"/>
+    </row>
+    <row r="39" ht="30" spans="1:6">
+      <c r="A39" s="34">
         <v>29</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="B39" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="35"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="35"/>
+    </row>
+    <row r="40" ht="30" spans="1:6">
+      <c r="A40" s="34">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="37">
-        <v>4</v>
-      </c>
-      <c r="B14" s="24" t="s">
+      <c r="B40" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="35"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="35"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="34">
         <v>31</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="B41" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="35"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="35"/>
+    </row>
+    <row r="42" ht="30" spans="1:6">
+      <c r="A42" s="34">
         <v>32</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="B42" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="35"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="35"/>
+    </row>
+    <row r="43" ht="30" spans="1:6">
+      <c r="A43" s="34">
         <v>33</v>
       </c>
-      <c r="E14" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" ht="75" spans="1:5">
-      <c r="A15" s="37">
-        <v>5</v>
-      </c>
-      <c r="B15" s="24" t="s">
+      <c r="B43" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="35"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="35"/>
+    </row>
+    <row r="44" ht="30" spans="1:6">
+      <c r="A44" s="34">
         <v>34</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="B44" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="35"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="35"/>
+    </row>
+    <row r="45" ht="30" spans="1:6">
+      <c r="A45" s="34">
         <v>35</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="B45" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="35"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="35"/>
+    </row>
+    <row r="46" ht="30" spans="1:6">
+      <c r="A46" s="34">
         <v>36</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="37">
-        <v>6</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" ht="30" spans="1:5">
-      <c r="A17" s="37">
-        <v>7</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" ht="60" spans="1:5">
-      <c r="A18" s="37">
-        <v>8</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="37">
-        <v>9</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="37">
-        <v>10</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" ht="30" spans="1:5">
-      <c r="A21" s="37">
-        <v>11</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" ht="45" spans="1:5">
-      <c r="A22" s="37">
-        <v>12</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" ht="30" spans="1:5">
-      <c r="A23" s="37">
-        <v>13</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" ht="45" spans="1:5">
-      <c r="A24" s="37">
-        <v>14</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" ht="45" spans="1:5">
-      <c r="A25" s="37">
-        <v>15</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" ht="30" spans="1:5">
-      <c r="A26" s="37">
-        <v>16</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" ht="30" spans="1:5">
-      <c r="A27" s="37">
+      <c r="B46" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="35"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="35"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="34"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="35"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="36"/>
+    </row>
+    <row r="49" s="23" customFormat="1" spans="1:6">
+      <c r="A49" s="36"/>
+      <c r="B49" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="F49" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="37">
-        <v>18</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" ht="30" spans="1:5">
-      <c r="A29" s="37">
-        <v>19</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="37">
-        <v>20</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" ht="30" spans="1:5">
-      <c r="A31" s="37">
-        <v>21</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" ht="30" spans="1:5">
-      <c r="A32" s="37">
-        <v>22</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" ht="30" spans="1:5">
-      <c r="A33" s="37">
-        <v>23</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="37">
-        <v>24</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="37">
-        <v>25</v>
-      </c>
-      <c r="B35" s="24" t="s">
+    </row>
+    <row r="50" s="24" customFormat="1" ht="30" spans="1:6">
+      <c r="A50" s="39"/>
+      <c r="B50" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C50" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="43" t="s">
+      <c r="D50" s="40"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="41"/>
+    </row>
+    <row r="51" s="24" customFormat="1" ht="30" spans="1:6">
+      <c r="A51" s="39"/>
+      <c r="B51" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="37">
-        <v>26</v>
-      </c>
-      <c r="B36" s="24" t="s">
+      <c r="C51" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="D51" s="42"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="41"/>
+    </row>
+    <row r="52" s="24" customFormat="1" ht="30" spans="1:6">
+      <c r="A52" s="39"/>
+      <c r="B52" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="43" t="s">
+      <c r="C52" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="42"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="41"/>
+    </row>
+    <row r="53" s="24" customFormat="1" spans="1:6">
+      <c r="A53" s="39"/>
+      <c r="B53" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="E36" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" ht="30" spans="1:5">
-      <c r="A37" s="37">
-        <v>27</v>
-      </c>
-      <c r="B37" s="24" t="s">
+      <c r="C53" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" ht="30" spans="1:5">
-      <c r="A38" s="37">
-        <v>28</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" ht="30" spans="1:5">
-      <c r="A39" s="37">
-        <v>29</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" ht="30" spans="1:5">
-      <c r="A40" s="37">
-        <v>30</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="37">
-        <v>31</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" ht="30" spans="1:5">
-      <c r="A42" s="37">
-        <v>32</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" ht="30" spans="1:5">
-      <c r="A43" s="37">
-        <v>33</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" ht="30" spans="1:5">
-      <c r="A44" s="37">
-        <v>34</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" ht="30" spans="1:5">
-      <c r="A45" s="37">
-        <v>35</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" ht="30" spans="1:5">
-      <c r="A46" s="37">
-        <v>36</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="37"/>
-      <c r="E47" s="20"/>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="37"/>
-    </row>
-    <row r="49" s="24" customFormat="1" spans="1:5">
-      <c r="A49" s="37"/>
-      <c r="B49" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="C49" s="38"/>
-      <c r="D49" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="E49" s="40" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="50" s="25" customFormat="1" ht="30" spans="1:5">
-      <c r="A50" s="41"/>
-      <c r="B50" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="C50" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="D50" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" s="25" customFormat="1" ht="30" spans="1:5">
-      <c r="A51" s="41"/>
-      <c r="B51" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="C51" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="D51" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" s="25" customFormat="1" ht="30" spans="1:5">
-      <c r="A52" s="41"/>
-      <c r="B52" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="C52" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="D52" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" s="25" customFormat="1" spans="1:5">
-      <c r="A53" s="41"/>
-      <c r="B53" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="C53" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="D53" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="E53" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="D53" s="42"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="41"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="37"/>
+      <c r="A54" s="36"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="37"/>
+      <c r="A55" s="36"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="37"/>
+      <c r="A56" s="36"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="37"/>
+      <c r="A57" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B49:C49"/>
+    <mergeCell ref="C5:C7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3275,1153 +3027,1068 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="99" customWidth="1"/>
-    <col min="3" max="3" width="9.54285714285714" customWidth="1"/>
-    <col min="4" max="4" width="75.2761904761905" customWidth="1"/>
-    <col min="6" max="6" width="36.1809523809524" customWidth="1"/>
-    <col min="8" max="8" width="15.8190476190476" customWidth="1"/>
+    <col min="3" max="3" width="75.2761904761905" customWidth="1"/>
+    <col min="5" max="5" width="36.1809523809524" customWidth="1"/>
+    <col min="7" max="7" width="15.8190476190476" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>144</v>
-      </c>
+      <c r="D1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" customFormat="1" spans="3:8">
-      <c r="C3" s="3"/>
+    </row>
+    <row r="3" customFormat="1" spans="5:7">
+      <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="D4"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="3" t="s">
-        <v>146</v>
-      </c>
+      <c r="B5" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="3"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="10"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="10"/>
+    </row>
+    <row r="7" ht="63" customHeight="1" spans="2:7">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="10"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="10"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="10"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="10"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" customFormat="1" spans="1:7">
+    </row>
+    <row r="12" customFormat="1" spans="1:6">
       <c r="A12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:6">
       <c r="A13" s="13"/>
       <c r="B13" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" customFormat="1" spans="1:7">
-      <c r="A14" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="18" t="s">
-        <v>151</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" customFormat="1" spans="1:6">
+      <c r="A14" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" customFormat="1" spans="1:7">
-      <c r="A15" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="18" t="s">
-        <v>154</v>
-      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:6">
+      <c r="A15" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" customFormat="1" spans="1:7">
-      <c r="A16" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18" t="s">
-        <v>157</v>
-      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:6">
+      <c r="A16" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" customFormat="1" spans="1:7">
-      <c r="A17" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="18" t="s">
-        <v>160</v>
-      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:6">
+      <c r="A17" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" customFormat="1" spans="1:7">
-      <c r="A18" s="10"/>
+    </row>
+    <row r="18" customFormat="1" spans="1:6">
+      <c r="A18" s="8"/>
       <c r="B18" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="13"/>
+        <v>118</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" customFormat="1" spans="1:7">
-      <c r="A19" s="10" t="s">
-        <v>162</v>
+    </row>
+    <row r="19" customFormat="1" spans="1:6">
+      <c r="A19" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="18" t="s">
-        <v>164</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" customFormat="1" spans="1:7">
-      <c r="A20" s="10" t="s">
-        <v>165</v>
+    </row>
+    <row r="20" customFormat="1" spans="1:6">
+      <c r="A20" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="18" t="s">
-        <v>167</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" customFormat="1" spans="1:7">
-      <c r="A21" s="10" t="s">
-        <v>168</v>
+    </row>
+    <row r="21" customFormat="1" spans="1:6">
+      <c r="A21" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="10" t="s">
-        <v>170</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" customFormat="1" spans="1:7">
-      <c r="A22" s="10" t="s">
-        <v>171</v>
+    </row>
+    <row r="22" customFormat="1" spans="1:6">
+      <c r="A22" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="10" t="s">
-        <v>173</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" customFormat="1" spans="1:7">
-      <c r="A23" s="10"/>
+    </row>
+    <row r="23" customFormat="1" spans="1:6">
+      <c r="A23" s="8"/>
       <c r="B23" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="10"/>
+        <v>131</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" customFormat="1" ht="75" spans="1:7">
-      <c r="A24" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="10" t="s">
-        <v>177</v>
-      </c>
+    </row>
+    <row r="24" customFormat="1" ht="75" spans="1:6">
+      <c r="A24" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" customFormat="1" spans="1:7">
-      <c r="A25" s="10"/>
+    </row>
+    <row r="25" customFormat="1" spans="1:6">
+      <c r="A25" s="8"/>
       <c r="B25" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="10"/>
+        <v>135</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" customFormat="1" ht="60" spans="1:7">
-      <c r="A26" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="20" t="s">
-        <v>181</v>
-      </c>
+    </row>
+    <row r="26" customFormat="1" ht="60" spans="1:6">
+      <c r="A26" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" customFormat="1" spans="1:7">
-      <c r="A27" s="10" t="s">
-        <v>182</v>
+    </row>
+    <row r="27" customFormat="1" spans="1:6">
+      <c r="A27" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="10" t="s">
-        <v>184</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" customFormat="1" spans="1:7">
-      <c r="A28" s="10" t="s">
-        <v>185</v>
+    </row>
+    <row r="28" customFormat="1" spans="1:6">
+      <c r="A28" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="10" t="s">
-        <v>187</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" customFormat="1" spans="1:7">
-      <c r="A29" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="10"/>
+    </row>
+    <row r="29" customFormat="1" spans="1:6">
+      <c r="A29" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" customFormat="1" spans="1:7">
-      <c r="A30" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="10"/>
+    </row>
+    <row r="30" customFormat="1" spans="1:6">
+      <c r="A30" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" customFormat="1" spans="1:7">
-      <c r="A31" s="16"/>
+    </row>
+    <row r="31" customFormat="1" spans="1:6">
+      <c r="A31" s="15"/>
       <c r="B31" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="10"/>
+        <v>149</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" customFormat="1" ht="120" spans="1:7">
-      <c r="A32" s="16" t="s">
-        <v>193</v>
+    </row>
+    <row r="32" customFormat="1" ht="120" spans="1:6">
+      <c r="A32" s="15" t="s">
+        <v>150</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="20" t="s">
-        <v>195</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="33" customFormat="1" ht="30" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="20" t="s">
-        <v>198</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="34" customFormat="1" ht="30" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="20" t="s">
-        <v>201</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" customFormat="1" spans="1:7">
+    </row>
+    <row r="35" customFormat="1" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="10" t="s">
-        <v>204</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" customFormat="1" ht="45" spans="1:7">
+    </row>
+    <row r="36" customFormat="1" ht="45" spans="1:6">
       <c r="A36" s="3" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="10" t="s">
-        <v>207</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" customFormat="1" spans="1:7">
+    </row>
+    <row r="37" customFormat="1" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="10" t="s">
-        <v>210</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" customFormat="1" spans="1:7">
+    </row>
+    <row r="38" customFormat="1" spans="1:6">
       <c r="A38" s="3" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="10" t="s">
-        <v>213</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" customFormat="1" spans="1:7">
+    </row>
+    <row r="39" customFormat="1" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>214</v>
+        <v>171</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="10" t="s">
-        <v>216</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" customFormat="1" spans="1:7">
+    </row>
+    <row r="40" customFormat="1" spans="1:6">
       <c r="A40" s="3" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="10" t="s">
-        <v>219</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" customFormat="1" ht="75" spans="1:7">
+    </row>
+    <row r="41" customFormat="1" ht="75" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="10" t="s">
-        <v>222</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" customFormat="1" spans="1:7">
+    </row>
+    <row r="42" customFormat="1" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="10" t="s">
-        <v>225</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" customFormat="1" spans="1:7">
+    </row>
+    <row r="43" customFormat="1" spans="1:6">
       <c r="A43" s="3" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="10" t="s">
-        <v>228</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" customFormat="1" spans="1:7">
+    </row>
+    <row r="44" customFormat="1" spans="1:6">
       <c r="A44" s="3" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="10" t="s">
-        <v>231</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" customFormat="1" spans="1:7">
+    </row>
+    <row r="45" customFormat="1" spans="1:6">
       <c r="A45" s="3" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="10" t="s">
-        <v>234</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" customFormat="1" spans="1:7">
+    </row>
+    <row r="46" customFormat="1" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="10" t="s">
-        <v>237</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" customFormat="1" spans="1:7">
+    </row>
+    <row r="47" customFormat="1" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="10"/>
+        <v>196</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" customFormat="1" spans="1:7">
+    </row>
+    <row r="48" customFormat="1" spans="1:6">
       <c r="A48" s="3" t="s">
-        <v>240</v>
+        <v>197</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="10" t="s">
-        <v>242</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="49" customFormat="1" ht="30" spans="1:6">
       <c r="A49" s="3" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="10"/>
+        <v>201</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" customFormat="1" spans="1:7">
+    </row>
+    <row r="50" customFormat="1" spans="1:6">
       <c r="A50" s="3" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="10" t="s">
-        <v>247</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" customFormat="1" spans="1:7">
+    </row>
+    <row r="51" customFormat="1" spans="1:6">
       <c r="A51" s="3" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="10"/>
+        <v>206</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" customFormat="1" spans="1:7">
+    </row>
+    <row r="52" customFormat="1" spans="1:6">
       <c r="A52" s="3" t="s">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="10"/>
+        <v>208</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" customFormat="1" spans="1:7">
+    </row>
+    <row r="53" customFormat="1" spans="1:6">
       <c r="A53" s="3" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="10"/>
+        <v>210</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" customFormat="1" spans="1:7">
+    </row>
+    <row r="54" customFormat="1" spans="1:6">
       <c r="A54" s="3" t="s">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="10"/>
+        <v>212</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" customFormat="1" spans="1:7">
+    </row>
+    <row r="55" customFormat="1" spans="1:6">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="10"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" customFormat="1" spans="1:7">
+    </row>
+    <row r="56" customFormat="1" spans="1:6">
       <c r="A56" s="3"/>
       <c r="B56" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="10"/>
+        <v>213</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" customFormat="1" spans="1:7">
+    </row>
+    <row r="57" customFormat="1" spans="1:6">
       <c r="A57" s="3" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="10" t="s">
-        <v>259</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-    </row>
-    <row r="58" customFormat="1" spans="1:7">
+    </row>
+    <row r="58" customFormat="1" spans="1:6">
       <c r="A58" s="3"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="10"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-    </row>
-    <row r="59" customFormat="1" spans="1:7">
+    </row>
+    <row r="59" customFormat="1" spans="1:6">
       <c r="A59" s="3"/>
       <c r="B59" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="10"/>
+        <v>107</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-    </row>
-    <row r="60" customFormat="1" spans="1:7">
+    </row>
+    <row r="60" customFormat="1" spans="1:6">
       <c r="A60" s="3" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="10" t="s">
-        <v>154</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" customFormat="1" spans="1:7">
+    </row>
+    <row r="61" customFormat="1" spans="1:6">
       <c r="A61" s="3" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="10" t="s">
-        <v>264</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-    </row>
-    <row r="62" customFormat="1" spans="1:7">
+    </row>
+    <row r="62" customFormat="1" spans="1:6">
       <c r="A62" s="3" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="10" t="s">
-        <v>267</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-    </row>
-    <row r="63" customFormat="1" spans="1:7">
+    </row>
+    <row r="63" customFormat="1" spans="1:6">
       <c r="A63" s="3" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>271</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E63" s="3"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-    </row>
-    <row r="64" customFormat="1" spans="1:7">
+    </row>
+    <row r="64" customFormat="1" spans="1:6">
       <c r="A64" s="3" t="s">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="10" t="s">
-        <v>274</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-    </row>
-    <row r="65" customFormat="1" spans="1:7">
+    </row>
+    <row r="65" customFormat="1" spans="1:6">
       <c r="A65" s="3" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="10" t="s">
-        <v>277</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-    </row>
-    <row r="66" customFormat="1" ht="45" spans="1:7">
+    </row>
+    <row r="66" customFormat="1" ht="45" spans="1:6">
       <c r="A66" s="3" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="10" t="s">
-        <v>280</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-    </row>
-    <row r="67" customFormat="1" spans="1:7">
+    </row>
+    <row r="67" customFormat="1" spans="1:6">
       <c r="A67" s="3" t="s">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="10" t="s">
-        <v>283</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-    </row>
-    <row r="68" customFormat="1" ht="165" spans="1:7">
+    </row>
+    <row r="68" customFormat="1" ht="165" spans="1:6">
       <c r="A68" s="3" t="s">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="20" t="s">
-        <v>286</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-    </row>
-    <row r="69" customFormat="1" spans="1:7">
+    </row>
+    <row r="69" customFormat="1" spans="1:6">
       <c r="A69" s="3" t="s">
-        <v>287</v>
+        <v>244</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="10" t="s">
-        <v>289</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-    </row>
-    <row r="70" customFormat="1" spans="1:7">
+    </row>
+    <row r="70" customFormat="1" spans="1:6">
       <c r="A70" s="3" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="10" t="s">
-        <v>292</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-    </row>
-    <row r="71" customFormat="1" spans="1:7">
+    </row>
+    <row r="71" customFormat="1" spans="1:6">
       <c r="A71" s="3" t="s">
-        <v>293</v>
+        <v>250</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="10" t="s">
-        <v>295</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-    </row>
-    <row r="72" customFormat="1" spans="1:7">
+    </row>
+    <row r="72" customFormat="1" spans="1:6">
       <c r="A72" s="3" t="s">
-        <v>296</v>
+        <v>253</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="E72" s="3"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="3"/>
-    </row>
-    <row r="73" customFormat="1" spans="1:7">
+        <v>254</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" customFormat="1" spans="1:6">
       <c r="A73" s="3" t="s">
-        <v>299</v>
+        <v>256</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="E73" s="3"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="3"/>
-    </row>
-    <row r="74" customFormat="1" spans="1:7">
+        <v>257</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" customFormat="1" spans="1:6">
       <c r="A74" s="3" t="s">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="E74" s="3"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="3"/>
-    </row>
-    <row r="75" customFormat="1" spans="1:7">
+        <v>260</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" customFormat="1" spans="1:6">
       <c r="A75" s="3" t="s">
-        <v>305</v>
+        <v>262</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="E75" s="3"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="3"/>
-    </row>
-    <row r="76" customFormat="1" spans="1:7">
+        <v>263</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" customFormat="1" spans="1:6">
       <c r="A76" s="3" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="10" t="s">
-        <v>310</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-    </row>
-    <row r="77" customFormat="1" spans="1:7">
+    </row>
+    <row r="77" customFormat="1" spans="1:6">
       <c r="A77" s="3" t="s">
-        <v>311</v>
+        <v>268</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C77" s="3"/>
-      <c r="D77" s="10" t="s">
-        <v>313</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-    </row>
-    <row r="78" customFormat="1" spans="1:7">
+    </row>
+    <row r="78" customFormat="1" spans="1:6">
       <c r="A78" s="3"/>
-      <c r="B78" s="22" t="s">
-        <v>314</v>
+      <c r="B78" s="21" t="s">
+        <v>271</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-    </row>
-    <row r="79" customFormat="1" spans="1:7">
+    </row>
+    <row r="79" customFormat="1" spans="1:6">
       <c r="A79" s="3" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="E79" s="23"/>
+        <v>273</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D79" s="22"/>
+      <c r="E79" s="3"/>
       <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-    </row>
-    <row r="80" customFormat="1" spans="1:7">
+    </row>
+    <row r="80" customFormat="1" spans="1:6">
       <c r="A80" s="3" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="E80" s="23"/>
+        <v>276</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D80" s="22"/>
+      <c r="E80" s="3"/>
       <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-    </row>
-    <row r="81" customFormat="1" spans="1:4">
+    </row>
+    <row r="81" customFormat="1" spans="1:3">
       <c r="A81" s="3" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3" t="s">
-        <v>323</v>
+        <v>279</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="B8:D8"/>
+  <mergeCells count="3">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="C5:C7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
